--- a/data structure for global local.xlsx
+++ b/data structure for global local.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mepdw\Git\BristolFE-v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1C7429-EFCB-4119-B34E-AEEE24CC63EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7E445B-1A83-4000-998D-74C1E1947ADD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{56DA4EE5-82C4-4923-90A7-41BD5F5D82DB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{56DA4EE5-82C4-4923-90A7-41BD5F5D82DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="84">
   <si>
     <t>Global - Local FE data structure</t>
   </si>
@@ -170,18 +170,6 @@
     <t>colour</t>
   </si>
   <si>
-    <t>Vector of nodes where forces will be applied for this transmission element</t>
-  </si>
-  <si>
-    <t>Vector of DoFs where forces will be applied for this transmission element</t>
-  </si>
-  <si>
-    <t>Vector of weights for forces (if omiited, assumed all one)</t>
-  </si>
-  <si>
-    <t>Same as for tx - if omitted, tx is assumed same as rx, so this is only nesc for separate Tx and Rx transducer(s)</t>
-  </si>
-  <si>
     <t>Master time axis</t>
   </si>
   <si>
@@ -203,9 +191,6 @@
     <t>Field output if requesting in main domain for transmission event</t>
   </si>
   <si>
-    <t>Field output if requesting in main domain for reception event (Included for completeness)</t>
-  </si>
-  <si>
     <t>Impulse responses for main pristine domain</t>
   </si>
   <si>
@@ -276,6 +261,33 @@
   </si>
   <si>
     <t>boundary layer indices for each of above</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>Vector of nodes for transducer or array element</t>
+  </si>
+  <si>
+    <t>Vector of DoFs for transducer or array element</t>
+  </si>
+  <si>
+    <t>Vector of weights for transducer or array element (if omiited, assumed all one)</t>
+  </si>
+  <si>
+    <t>trans{}</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>el_xc</t>
+  </si>
+  <si>
+    <t>etc</t>
+  </si>
+  <si>
+    <t>Array description as usual so that exp_data = main.fmc_data gives valid data for imaging</t>
   </si>
 </sst>
 </file>
@@ -638,39 +650,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7380E9E1-529B-413B-A32D-D2E3A29EAEF0}">
   <dimension ref="A1:H84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="H57" sqref="H57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="8.54296875" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -684,7 +696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>4</v>
       </c>
@@ -692,7 +704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>5</v>
       </c>
@@ -700,7 +712,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>6</v>
       </c>
@@ -708,7 +720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>7</v>
       </c>
@@ -716,7 +728,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
@@ -727,7 +739,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>9</v>
       </c>
@@ -735,7 +747,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>10</v>
       </c>
@@ -743,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>11</v>
       </c>
@@ -751,55 +763,34 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C28" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>17</v>
       </c>
@@ -807,18 +798,18 @@
         <v>18</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>24</v>
       </c>
@@ -832,7 +823,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>4</v>
       </c>
@@ -840,7 +831,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>5</v>
       </c>
@@ -848,7 +839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>6</v>
       </c>
@@ -856,7 +847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>7</v>
       </c>
@@ -864,39 +855,39 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="H40" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.35">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="H41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.35">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>25</v>
       </c>
@@ -910,7 +901,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>4</v>
       </c>
@@ -918,7 +909,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>5</v>
       </c>
@@ -926,7 +917,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>6</v>
       </c>
@@ -934,7 +925,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>7</v>
       </c>
@@ -942,42 +933,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>21</v>
       </c>
       <c r="H48" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>26</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="D50" t="s">
         <v>28</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D51" s="1" t="s">
         <v>29</v>
       </c>
@@ -985,77 +976,77 @@
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="H53" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D54" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="C56" t="s">
-        <v>32</v>
-      </c>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>34</v>
+      </c>
+      <c r="H55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>33</v>
+        <v>80</v>
+      </c>
+      <c r="E56" t="s">
+        <v>81</v>
       </c>
       <c r="H56" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D57" t="s">
-        <v>27</v>
-      </c>
-      <c r="H57" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="D58" t="s">
-        <v>34</v>
-      </c>
-      <c r="H58" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H60" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H62" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D63" s="1" t="s">
         <v>23</v>
       </c>
@@ -1063,23 +1054,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
         <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
         <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>24</v>
       </c>
@@ -1087,77 +1078,77 @@
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H67" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
         <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
         <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H72" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
         <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
         <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="H75" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>24</v>
       </c>
@@ -1171,15 +1162,15 @@
         <v>28</v>
       </c>
       <c r="H79" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E80" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="4:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
         <v>32</v>
       </c>
@@ -1187,23 +1178,23 @@
         <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="83" spans="4:8" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>27</v>
       </c>
       <c r="H83" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="84" spans="4:8" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="84" spans="4:8" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>34</v>
       </c>
       <c r="H84" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
